--- a/biology/Botanique/Hierochloe_odorata/Hierochloe_odorata.xlsx
+++ b/biology/Botanique/Hierochloe_odorata/Hierochloe_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hierochloe odorata (ou Anthoxanthum nitens), aussi connue sous les noms de foin d'odeur[1], avoine odorante, hiérochloé odorant ou herbe aux bisons, est une plante herbacée vivace de la famille des Poacées, originaire de l'hémisphère Nord.
-À partir de sa souche rhizomateuse, elle forme des touffes de 60 à 70 cm de hauteur. Elle doit son odeur agréable à la coumarine qu'elle contient[1]. Elle est utilisée en aromathérapie[1] et dans la production de boissons distillées (Żubrówka).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hierochloe odorata (ou Anthoxanthum nitens), aussi connue sous les noms de foin d'odeur, avoine odorante, hiérochloé odorant ou herbe aux bisons, est une plante herbacée vivace de la famille des Poacées, originaire de l'hémisphère Nord.
+À partir de sa souche rhizomateuse, elle forme des touffes de 60 à 70 cm de hauteur. Elle doit son odeur agréable à la coumarine qu'elle contient. Elle est utilisée en aromathérapie et dans la production de boissons distillées (Żubrówka).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Aire de distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire de l'hémisphère nord (Asie, Europe, Amérique du Nord). Il s'agit d'une herbe à but décoratif et gustatif, sans propriétés psychotropes. À l'état naturel, elle pousse notamment dans la forêt de Bialovèse, où subsistent à l'état sauvage les derniers bisons d'Europe.
 </t>
@@ -543,10 +557,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Hierochloe vient des racines grecques hieros, « sacré », et chloë, « herbe » : en effet, dans certaines régions d'Europe, la plante était répandue sur le perron des églises, notamment pour la fête des saint.
-Cette herbe est protégée et son exploitation limitée. On la rencontre comme plante aromatique dans certaines vodkas, comme la Żubrówka. Elle est coupée à la période chaude et séchée avant d'être utilisée comme aromate. Contrairement à ce qu'affirme Żubrówka sur son site Internet[2], il semble que la consommation de cette herbe par les bisons est anecdotique, et qu'ils préfèrent d'autres plantes, notamment les orties, la glycérie aquatique (Glyceria maxima), la laîche des bois (Carex sylvatica) ou la laîche hérissée (Carex hirta[3]).
+Cette herbe est protégée et son exploitation limitée. On la rencontre comme plante aromatique dans certaines vodkas, comme la Żubrówka. Elle est coupée à la période chaude et séchée avant d'être utilisée comme aromate. Contrairement à ce qu'affirme Żubrówka sur son site Internet, il semble que la consommation de cette herbe par les bisons est anecdotique, et qu'ils préfèrent d'autres plantes, notamment les orties, la glycérie aquatique (Glyceria maxima), la laîche des bois (Carex sylvatica) ou la laîche hérissée (Carex hirta).
 On l'utilise également pour parfumer le linge de maison.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une autre plante est appelée « herbe aux bisons ». Il s'agit de Bouteloua dactyloides (Nutt.) Engelm., espèce surtout présente en Amérique du Nord.
 On confond souvent la hiérochloé odorante avec la flouve odorante, dont elle est une cousine.
